--- a/TTN/ExcelVertical/Товарная1.xlsx
+++ b/TTN/ExcelVertical/Товарная1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programm\project\Consol\TTN\TTN\ExcelVertical\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D90D1C-EAF2-4B1E-B563-857DF621E949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B18CB-8DEB-4E61-A773-5ED7CC1D575F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -776,7 +776,7 @@
   <dimension ref="A1:FH108"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="AF2" sqref="AF2:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -922,7 +922,7 @@
       <c r="EA1" s="23"/>
       <c r="EB1" s="24"/>
     </row>
-    <row r="2" spans="1:164" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:164" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -16362,17 +16362,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="DT3:EB3"/>
-    <mergeCell ref="BW3:CC3"/>
-    <mergeCell ref="CD3:CN3"/>
-    <mergeCell ref="CO3:CZ3"/>
-    <mergeCell ref="DA3:DI3"/>
-    <mergeCell ref="DJ3:DS3"/>
-    <mergeCell ref="A3:AE3"/>
-    <mergeCell ref="AF3:AN3"/>
-    <mergeCell ref="AO3:AW3"/>
-    <mergeCell ref="AX3:BJ3"/>
-    <mergeCell ref="BK3:BV3"/>
     <mergeCell ref="A1:EB1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="AF2:AN2"/>
@@ -16385,10 +16374,21 @@
     <mergeCell ref="DA2:DI2"/>
     <mergeCell ref="DJ2:DS2"/>
     <mergeCell ref="DT2:EB2"/>
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="AF3:AN3"/>
+    <mergeCell ref="AO3:AW3"/>
+    <mergeCell ref="AX3:BJ3"/>
+    <mergeCell ref="BK3:BV3"/>
+    <mergeCell ref="DT3:EB3"/>
+    <mergeCell ref="BW3:CC3"/>
+    <mergeCell ref="CD3:CN3"/>
+    <mergeCell ref="CO3:CZ3"/>
+    <mergeCell ref="DA3:DI3"/>
+    <mergeCell ref="DJ3:DS3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
